--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S15/S15_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S15/S15_lossmod.xlsx
@@ -14,186 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.016298708734811818</t>
-  </si>
-  <si>
-    <t>0.026926873718591815</t>
-  </si>
-  <si>
-    <t>0.0385449044025567</t>
-  </si>
-  <si>
-    <t>0.06381991521797707</t>
-  </si>
-  <si>
-    <t>0.08863217530574644</t>
-  </si>
-  <si>
-    <t>0.11925729818588314</t>
-  </si>
-  <si>
-    <t>0.16916650368272426</t>
-  </si>
-  <si>
-    <t>0.2418721729756352</t>
-  </si>
-  <si>
-    <t>0.3458614238462695</t>
-  </si>
-  <si>
-    <t>0.4945921944861226</t>
-  </si>
-  <si>
-    <t>0.7073266011943401</t>
-  </si>
-  <si>
-    <t>1.0116176122364713</t>
-  </si>
-  <si>
-    <t>1.4467879617340906</t>
-  </si>
-  <si>
-    <t>2.069645224763977</t>
-  </si>
-  <si>
-    <t>2.9609178201882553</t>
-  </si>
-  <si>
-    <t>4.236662127899864</t>
-  </si>
-  <si>
-    <t>6.062405257749747</t>
-  </si>
-  <si>
-    <t>8.675326186270748</t>
-  </si>
-  <si>
-    <t>12.417019047212221</t>
-  </si>
-  <si>
-    <t>17.772030629868976</t>
-  </si>
-  <si>
-    <t>25.108229467969096</t>
-  </si>
-  <si>
-    <t>36.176086326669655</t>
-  </si>
-  <si>
-    <t>52.12499176937585</t>
-  </si>
-  <si>
-    <t>74.61951952703794</t>
-  </si>
-  <si>
-    <t>106.83464861869642</t>
-  </si>
-  <si>
-    <t>151.0877364594407</t>
-  </si>
-  <si>
-    <t>201.11542898689726</t>
-  </si>
-  <si>
-    <t>308.37254630564314</t>
-  </si>
-  <si>
-    <t>471.3538385856971</t>
-  </si>
-  <si>
-    <t>94.00804450024626</t>
-  </si>
-  <si>
-    <t>146.74511942561298</t>
-  </si>
-  <si>
-    <t>229.804557179086</t>
-  </si>
-  <si>
-    <t>332.8891866688608</t>
-  </si>
-  <si>
-    <t>466.93304802418476</t>
-  </si>
-  <si>
-    <t>641.5347381582287</t>
-  </si>
-  <si>
-    <t>848.2240438023933</t>
-  </si>
-  <si>
-    <t>1174.123962888047</t>
-  </si>
-  <si>
-    <t>1593.3650862410186</t>
-  </si>
-  <si>
-    <t>2134.7677022635853</t>
-  </si>
-  <si>
-    <t>2825.3544106550044</t>
-  </si>
-  <si>
-    <t>3700.3365718798623</t>
-  </si>
-  <si>
-    <t>4863.260440296015</t>
-  </si>
-  <si>
-    <t>6107.729060532982</t>
-  </si>
-  <si>
-    <t>7537.7542542926485</t>
-  </si>
-  <si>
-    <t>9030.278482033546</t>
-  </si>
-  <si>
-    <t>10705.483782682002</t>
-  </si>
-  <si>
-    <t>12581.037009508385</t>
-  </si>
-  <si>
-    <t>14202.654593893487</t>
-  </si>
-  <si>
-    <t>16117.571960841567</t>
-  </si>
-  <si>
-    <t>18031.142225438944</t>
-  </si>
-  <si>
-    <t>20019.679781181232</t>
-  </si>
-  <si>
-    <t>22041.83780472777</t>
-  </si>
-  <si>
-    <t>24070.207864916603</t>
-  </si>
-  <si>
-    <t>25672.333503170776</t>
-  </si>
-  <si>
-    <t>27676.80829291246</t>
-  </si>
-  <si>
-    <t>30692.261668369203</t>
-  </si>
-  <si>
-    <t>32911.83711042155</t>
-  </si>
-  <si>
-    <t>34377.109523444284</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -566,235 +392,235 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="A2">
+        <v>0.01629870873481182</v>
+      </c>
+      <c r="B2">
+        <v>94.00804450024626</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
+      <c r="A3">
+        <v>0.02692687371859181</v>
+      </c>
+      <c r="B3">
+        <v>146.745119425613</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="A4">
+        <v>0.0385449044025567</v>
+      </c>
+      <c r="B4">
+        <v>229.804557179086</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="A5">
+        <v>0.06381991521797707</v>
+      </c>
+      <c r="B5">
+        <v>332.8891866688608</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
+      <c r="A6">
+        <v>0.08863217530574644</v>
+      </c>
+      <c r="B6">
+        <v>466.9330480241848</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="A7">
+        <v>0.1192572981858831</v>
+      </c>
+      <c r="B7">
+        <v>641.5347381582287</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
+      <c r="A8">
+        <v>0.1691665036827243</v>
+      </c>
+      <c r="B8">
+        <v>848.2240438023933</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
+      <c r="A9">
+        <v>0.2418721729756352</v>
+      </c>
+      <c r="B9">
+        <v>1174.123962888047</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
+      <c r="A10">
+        <v>0.3458614238462695</v>
+      </c>
+      <c r="B10">
+        <v>1593.365086241019</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
+      <c r="A11">
+        <v>0.4945921944861226</v>
+      </c>
+      <c r="B11">
+        <v>2134.767702263585</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
+      <c r="A12">
+        <v>0.7073266011943401</v>
+      </c>
+      <c r="B12">
+        <v>2825.354410655004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
+      <c r="A13">
+        <v>1.011617612236471</v>
+      </c>
+      <c r="B13">
+        <v>3700.336571879862</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
+      <c r="A14">
+        <v>1.446787961734091</v>
+      </c>
+      <c r="B14">
+        <v>4863.260440296015</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
+      <c r="A15">
+        <v>2.069645224763977</v>
+      </c>
+      <c r="B15">
+        <v>6107.729060532982</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
+      <c r="A16">
+        <v>2.960917820188255</v>
+      </c>
+      <c r="B16">
+        <v>7537.754254292649</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
+      <c r="A17">
+        <v>4.236662127899864</v>
+      </c>
+      <c r="B17">
+        <v>9030.278482033546</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
+      <c r="A18">
+        <v>6.062405257749747</v>
+      </c>
+      <c r="B18">
+        <v>10705.483782682</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
+      <c r="A19">
+        <v>8.675326186270748</v>
+      </c>
+      <c r="B19">
+        <v>12581.03700950839</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
+      <c r="A20">
+        <v>12.41701904721222</v>
+      </c>
+      <c r="B20">
+        <v>14202.65459389349</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
+      <c r="A21">
+        <v>17.77203062986898</v>
+      </c>
+      <c r="B21">
+        <v>16117.57196084157</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
+      <c r="A22">
+        <v>25.1082294679691</v>
+      </c>
+      <c r="B22">
+        <v>18031.14222543894</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
+      <c r="A23">
+        <v>36.17608632666965</v>
+      </c>
+      <c r="B23">
+        <v>20019.67978118123</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
+      <c r="A24">
+        <v>52.12499176937585</v>
+      </c>
+      <c r="B24">
+        <v>22041.83780472777</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
+      <c r="A25">
+        <v>74.61951952703794</v>
+      </c>
+      <c r="B25">
+        <v>24070.2078649166</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
+      <c r="A26">
+        <v>106.8346486186964</v>
+      </c>
+      <c r="B26">
+        <v>25672.33350317078</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
+      <c r="A27">
+        <v>151.0877364594407</v>
+      </c>
+      <c r="B27">
+        <v>27676.80829291246</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
+      <c r="A28">
+        <v>201.1154289868973</v>
+      </c>
+      <c r="B28">
+        <v>30692.2616683692</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
+      <c r="A29">
+        <v>308.3725463056431</v>
+      </c>
+      <c r="B29">
+        <v>32911.83711042155</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
+      <c r="A30">
+        <v>471.3538385856971</v>
+      </c>
+      <c r="B30">
+        <v>34377.10952344428</v>
       </c>
     </row>
   </sheetData>
